--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,10 +546,10 @@
         <v>2.363314</v>
       </c>
       <c r="I2">
-        <v>0.5072213094787131</v>
+        <v>0.2100890506321124</v>
       </c>
       <c r="J2">
-        <v>0.5072213094787131</v>
+        <v>0.2100890506321124</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.296413666666666</v>
+        <v>5.471399333333333</v>
       </c>
       <c r="N2">
-        <v>15.889241</v>
+        <v>16.414198</v>
       </c>
       <c r="O2">
-        <v>0.6636761940842283</v>
+        <v>0.5528614411011451</v>
       </c>
       <c r="P2">
-        <v>0.6636761940842283</v>
+        <v>0.552861441101145</v>
       </c>
       <c r="Q2">
-        <v>4.172362856074888</v>
+        <v>4.310211548019111</v>
       </c>
       <c r="R2">
-        <v>37.55126570467399</v>
+        <v>38.791903932172</v>
       </c>
       <c r="S2">
-        <v>0.3366307082332509</v>
+        <v>0.1161501352920411</v>
       </c>
       <c r="T2">
-        <v>0.3366307082332509</v>
+        <v>0.1161501352920411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +608,10 @@
         <v>2.363314</v>
       </c>
       <c r="I3">
-        <v>0.5072213094787131</v>
+        <v>0.2100890506321124</v>
       </c>
       <c r="J3">
-        <v>0.5072213094787131</v>
+        <v>0.2100890506321124</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.065543333333334</v>
+        <v>1.065543333333333</v>
       </c>
       <c r="N3">
         <v>3.19663</v>
       </c>
       <c r="O3">
-        <v>0.1335197340323221</v>
+        <v>0.1076685847500532</v>
       </c>
       <c r="P3">
-        <v>0.1335197340323221</v>
+        <v>0.1076685847500532</v>
       </c>
       <c r="Q3">
-        <v>0.8394044924244445</v>
+        <v>0.8394044924244444</v>
       </c>
       <c r="R3">
-        <v>7.55464043182</v>
+        <v>7.554640431819999</v>
       </c>
       <c r="S3">
-        <v>0.06772405433712389</v>
+        <v>0.02261999075304181</v>
       </c>
       <c r="T3">
-        <v>0.06772405433712389</v>
+        <v>0.02261999075304181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,10 +670,10 @@
         <v>2.363314</v>
       </c>
       <c r="I4">
-        <v>0.5072213094787131</v>
+        <v>0.2100890506321124</v>
       </c>
       <c r="J4">
-        <v>0.5072213094787131</v>
+        <v>0.2100890506321124</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,60 +682,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.618461333333333</v>
+        <v>0.1427016666666666</v>
       </c>
       <c r="N4">
-        <v>4.855384</v>
+        <v>0.428105</v>
       </c>
       <c r="O4">
-        <v>0.2028040718834497</v>
+        <v>0.01441939150743799</v>
       </c>
       <c r="P4">
-        <v>0.2028040718834497</v>
+        <v>0.01441939150743799</v>
       </c>
       <c r="Q4">
-        <v>1.274977442508444</v>
+        <v>0.1124162822188889</v>
       </c>
       <c r="R4">
-        <v>11.474796982576</v>
+        <v>1.01174653997</v>
       </c>
       <c r="S4">
-        <v>0.1028665469083384</v>
+        <v>0.003029356272490392</v>
       </c>
       <c r="T4">
-        <v>0.1028665469083384</v>
+        <v>0.003029356272490392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7653403333333334</v>
+        <v>0.7877713333333333</v>
       </c>
       <c r="H5">
-        <v>2.296021</v>
+        <v>2.363314</v>
       </c>
       <c r="I5">
-        <v>0.4927786905212869</v>
+        <v>0.2100890506321124</v>
       </c>
       <c r="J5">
-        <v>0.4927786905212868</v>
+        <v>0.2100890506321124</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,90 +744,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.296413666666666</v>
+        <v>2.956137666666667</v>
       </c>
       <c r="N5">
-        <v>15.889241</v>
+        <v>8.868413</v>
       </c>
       <c r="O5">
-        <v>0.6636761940842283</v>
+        <v>0.298705035205505</v>
       </c>
       <c r="P5">
-        <v>0.6636761940842283</v>
+        <v>0.298705035205505</v>
       </c>
       <c r="Q5">
-        <v>4.053559001117889</v>
+        <v>2.328760511186889</v>
       </c>
       <c r="R5">
-        <v>36.482031010061</v>
+        <v>20.958844600682</v>
       </c>
       <c r="S5">
-        <v>0.3270454858509774</v>
+        <v>0.06275465726535626</v>
       </c>
       <c r="T5">
-        <v>0.3270454858509774</v>
+        <v>0.06275465726535626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7653403333333334</v>
+        <v>0.7877713333333333</v>
       </c>
       <c r="H6">
-        <v>2.296021</v>
+        <v>2.363314</v>
       </c>
       <c r="I6">
-        <v>0.4927786905212869</v>
+        <v>0.2100890506321124</v>
       </c>
       <c r="J6">
-        <v>0.4927786905212868</v>
+        <v>0.2100890506321124</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.065543333333334</v>
+        <v>0.260729</v>
       </c>
       <c r="N6">
-        <v>3.19663</v>
+        <v>0.782187</v>
       </c>
       <c r="O6">
-        <v>0.1335197340323221</v>
+        <v>0.02634554743585896</v>
       </c>
       <c r="P6">
-        <v>0.1335197340323221</v>
+        <v>0.02634554743585896</v>
       </c>
       <c r="Q6">
-        <v>0.8155032899144447</v>
+        <v>0.2053948319686666</v>
       </c>
       <c r="R6">
-        <v>7.339529609230001</v>
+        <v>1.848553487718</v>
       </c>
       <c r="S6">
-        <v>0.06579567969519817</v>
+        <v>0.005534911049182894</v>
       </c>
       <c r="T6">
-        <v>0.06579567969519816</v>
+        <v>0.005534911049182893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7653403333333334</v>
+        <v>1.286106333333333</v>
       </c>
       <c r="H7">
-        <v>2.296021</v>
+        <v>3.858319</v>
       </c>
       <c r="I7">
-        <v>0.4927786905212869</v>
+        <v>0.3429889450770577</v>
       </c>
       <c r="J7">
-        <v>0.4927786905212868</v>
+        <v>0.3429889450770577</v>
       </c>
       <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.471399333333333</v>
+      </c>
+      <c r="N7">
+        <v>16.414198</v>
+      </c>
+      <c r="O7">
+        <v>0.5528614411011451</v>
+      </c>
+      <c r="P7">
+        <v>0.552861441101145</v>
+      </c>
+      <c r="Q7">
+        <v>7.036801334795777</v>
+      </c>
+      <c r="R7">
+        <v>63.331212013162</v>
+      </c>
+      <c r="S7">
+        <v>0.1896253624570636</v>
+      </c>
+      <c r="T7">
+        <v>0.1896253624570636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.286106333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.858319</v>
+      </c>
+      <c r="I8">
+        <v>0.3429889450770577</v>
+      </c>
+      <c r="J8">
+        <v>0.3429889450770577</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.065543333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.19663</v>
+      </c>
+      <c r="O8">
+        <v>0.1076685847500532</v>
+      </c>
+      <c r="P8">
+        <v>0.1076685847500532</v>
+      </c>
+      <c r="Q8">
+        <v>1.370402029441111</v>
+      </c>
+      <c r="R8">
+        <v>12.33361826497</v>
+      </c>
+      <c r="S8">
+        <v>0.03692913430136052</v>
+      </c>
+      <c r="T8">
+        <v>0.03692913430136052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.286106333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.858319</v>
+      </c>
+      <c r="I9">
+        <v>0.3429889450770577</v>
+      </c>
+      <c r="J9">
+        <v>0.3429889450770577</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
-        <v>1.618461333333333</v>
-      </c>
-      <c r="N7">
-        <v>4.855384</v>
-      </c>
-      <c r="O7">
-        <v>0.2028040718834497</v>
-      </c>
-      <c r="P7">
-        <v>0.2028040718834497</v>
-      </c>
-      <c r="Q7">
-        <v>1.238673736340445</v>
-      </c>
-      <c r="R7">
-        <v>11.148063627064</v>
-      </c>
-      <c r="S7">
-        <v>0.0999375249751113</v>
-      </c>
-      <c r="T7">
-        <v>0.09993752497511128</v>
+      <c r="M9">
+        <v>0.1427016666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.428105</v>
+      </c>
+      <c r="O9">
+        <v>0.01441939150743799</v>
+      </c>
+      <c r="P9">
+        <v>0.01441939150743799</v>
+      </c>
+      <c r="Q9">
+        <v>0.1835295172772222</v>
+      </c>
+      <c r="R9">
+        <v>1.651765655495</v>
+      </c>
+      <c r="S9">
+        <v>0.004945691881789241</v>
+      </c>
+      <c r="T9">
+        <v>0.004945691881789241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.286106333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.858319</v>
+      </c>
+      <c r="I10">
+        <v>0.3429889450770577</v>
+      </c>
+      <c r="J10">
+        <v>0.3429889450770577</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.956137666666667</v>
+      </c>
+      <c r="N10">
+        <v>8.868413</v>
+      </c>
+      <c r="O10">
+        <v>0.298705035205505</v>
+      </c>
+      <c r="P10">
+        <v>0.298705035205505</v>
+      </c>
+      <c r="Q10">
+        <v>3.801907375305222</v>
+      </c>
+      <c r="R10">
+        <v>34.21716637774701</v>
+      </c>
+      <c r="S10">
+        <v>0.1024525249143415</v>
+      </c>
+      <c r="T10">
+        <v>0.1024525249143415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.286106333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.858319</v>
+      </c>
+      <c r="I11">
+        <v>0.3429889450770577</v>
+      </c>
+      <c r="J11">
+        <v>0.3429889450770577</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.260729</v>
+      </c>
+      <c r="N11">
+        <v>0.782187</v>
+      </c>
+      <c r="O11">
+        <v>0.02634554743585896</v>
+      </c>
+      <c r="P11">
+        <v>0.02634554743585896</v>
+      </c>
+      <c r="Q11">
+        <v>0.3353252181836667</v>
+      </c>
+      <c r="R11">
+        <v>3.017926963653</v>
+      </c>
+      <c r="S11">
+        <v>0.009036231522502849</v>
+      </c>
+      <c r="T11">
+        <v>0.009036231522502847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.675824333333334</v>
+      </c>
+      <c r="H12">
+        <v>5.027473000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.4469220042908299</v>
+      </c>
+      <c r="J12">
+        <v>0.4469220042908298</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.471399333333333</v>
+      </c>
+      <c r="N12">
+        <v>16.414198</v>
+      </c>
+      <c r="O12">
+        <v>0.5528614411011451</v>
+      </c>
+      <c r="P12">
+        <v>0.552861441101145</v>
+      </c>
+      <c r="Q12">
+        <v>9.169104140183778</v>
+      </c>
+      <c r="R12">
+        <v>82.521937261654</v>
+      </c>
+      <c r="S12">
+        <v>0.2470859433520404</v>
+      </c>
+      <c r="T12">
+        <v>0.2470859433520403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.675824333333334</v>
+      </c>
+      <c r="H13">
+        <v>5.027473000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.4469220042908299</v>
+      </c>
+      <c r="J13">
+        <v>0.4469220042908298</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.065543333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.19663</v>
+      </c>
+      <c r="O13">
+        <v>0.1076685847500532</v>
+      </c>
+      <c r="P13">
+        <v>0.1076685847500532</v>
+      </c>
+      <c r="Q13">
+        <v>1.785663446221111</v>
+      </c>
+      <c r="R13">
+        <v>16.07097101599</v>
+      </c>
+      <c r="S13">
+        <v>0.04811945969565085</v>
+      </c>
+      <c r="T13">
+        <v>0.04811945969565084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.675824333333334</v>
+      </c>
+      <c r="H14">
+        <v>5.027473000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.4469220042908299</v>
+      </c>
+      <c r="J14">
+        <v>0.4469220042908298</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1427016666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.428105</v>
+      </c>
+      <c r="O14">
+        <v>0.01441939150743799</v>
+      </c>
+      <c r="P14">
+        <v>0.01441939150743799</v>
+      </c>
+      <c r="Q14">
+        <v>0.2391429254072222</v>
+      </c>
+      <c r="R14">
+        <v>2.152286328665</v>
+      </c>
+      <c r="S14">
+        <v>0.006444343353158358</v>
+      </c>
+      <c r="T14">
+        <v>0.006444343353158358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.675824333333334</v>
+      </c>
+      <c r="H15">
+        <v>5.027473000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.4469220042908299</v>
+      </c>
+      <c r="J15">
+        <v>0.4469220042908298</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.956137666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.868413</v>
+      </c>
+      <c r="O15">
+        <v>0.298705035205505</v>
+      </c>
+      <c r="P15">
+        <v>0.298705035205505</v>
+      </c>
+      <c r="Q15">
+        <v>4.953967434483223</v>
+      </c>
+      <c r="R15">
+        <v>44.585706910349</v>
+      </c>
+      <c r="S15">
+        <v>0.1334978530258072</v>
+      </c>
+      <c r="T15">
+        <v>0.1334978530258072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.675824333333334</v>
+      </c>
+      <c r="H16">
+        <v>5.027473000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.4469220042908299</v>
+      </c>
+      <c r="J16">
+        <v>0.4469220042908298</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.260729</v>
+      </c>
+      <c r="N16">
+        <v>0.782187</v>
+      </c>
+      <c r="O16">
+        <v>0.02634554743585896</v>
+      </c>
+      <c r="P16">
+        <v>0.02634554743585896</v>
+      </c>
+      <c r="Q16">
+        <v>0.4369360026056667</v>
+      </c>
+      <c r="R16">
+        <v>3.932424023451</v>
+      </c>
+      <c r="S16">
+        <v>0.01177440486417322</v>
+      </c>
+      <c r="T16">
+        <v>0.01177440486417322</v>
       </c>
     </row>
   </sheetData>
